--- a/2.Design/Template/Import_serial.xlsx
+++ b/2.Design/Template/Import_serial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E19D300-BF39-4E1A-A279-283A89CEDF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B230283-4EBD-4A32-8F26-92B919C1F56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/2.Design/Template/Import_serial.xlsx
+++ b/2.Design/Template/Import_serial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B230283-4EBD-4A32-8F26-92B919C1F56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52712F3-3570-47C2-AC9E-533286F9309D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/2.Design/Template/Import_serial.xlsx
+++ b/2.Design/Template/Import_serial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52712F3-3570-47C2-AC9E-533286F9309D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601AF5B9-5B1A-4B93-B551-A282C4240907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,12 +427,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
